--- a/DataBag/test_xlx.xlsx
+++ b/DataBag/test_xlx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\cyanconnode_api_project\DataBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7FE8FC-6EFA-4B3E-8844-E0F30812DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC053-D123-4567-92BB-9A9BD2ACD05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,46 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">  "id"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5818968,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Dev shakya",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "email"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "devshakya@hoeger-schiller.test",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "gender"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "male",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "status"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "active"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>iuy</t>
+  </si>
+  <si>
+    <t>jhgf</t>
+  </si>
+  <si>
+    <t>reev2@gmail.com</t>
+  </si>
+  <si>
+    <t>reeeev3@gmail.com</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dtttdddtreev1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +104,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,59 +397,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>5818968</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{21A8026F-CB36-4CB2-94DD-067C0B47C4C3}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{35A2A004-8A58-44BE-9334-FE9D38C909C9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{67FF590C-18CE-4C03-AB59-87D6085D483D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataBag/test_xlx.xlsx
+++ b/DataBag/test_xlx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\cyanconnode_api_project\DataBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC053-D123-4567-92BB-9A9BD2ACD05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADD023-DE6E-46CC-80DB-80011E02068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>dtttdddtreev1@gmail.com</t>
+    <t>dttsssev1@gmail.com</t>
   </si>
 </sst>
 </file>
